--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Observation Iniciar Discapacidad LE</t>
+    <t>Observación Iniciar Discapacidad LE</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation Iniciar Discapacidad LE, para describir si un paciente presenta discapacidad</t>
+    <t>Observación Iniciar Discapacidad LE, para describir si un paciente presenta discapacidad</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -600,7 +600,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t xml:space="preserve">Estado de la obseravación, por defecto 'final' </t>
+    <t xml:space="preserve">Estado de la observación, por defecto 'final' </t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -618,10 +618,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -689,14 +686,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="75326-9"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
@@ -765,7 +754,7 @@
 </t>
   </si>
   <si>
-    <t>Códigos definidos por un sistema terminológico</t>
+    <t>Code defined by a terminology system</t>
   </si>
   <si>
     <t>A reference to a code defined by a terminology system.</t>
@@ -795,7 +784,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>Sistema terminológico, url/uri/uuid</t>
+    <t>Identity of the terminology system</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -807,6 +796,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -840,13 +832,16 @@
     <t>Observation.code.coding.code</t>
   </si>
   <si>
-    <t>Código definido en un sistema terminológico</t>
+    <t>Symbol in syntax defined by the system</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>101720-1</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -3715,7 +3710,7 @@
         <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>94</v>
@@ -3763,11 +3758,9 @@
       <c r="X15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3800,19 +3793,19 @@
         <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3820,10 +3813,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3846,19 +3839,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3886,11 +3879,11 @@
         <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3907,7 +3900,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3931,10 +3924,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3942,14 +3935,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3968,19 +3961,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3990,29 +3983,29 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
       </c>
@@ -4029,7 +4022,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>93</v>
@@ -4044,30 +4037,30 @@
         <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4090,13 +4083,13 @@
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4147,7 +4140,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4171,7 +4164,7 @@
         <v>82</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
@@ -4182,10 +4175,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4211,10 +4204,10 @@
         <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>155</v>
@@ -4258,7 +4251,7 @@
         <v>141</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>82</v>
@@ -4267,7 +4260,7 @@
         <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4291,7 +4284,7 @@
         <v>82</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4302,10 +4295,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4313,13 +4306,13 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
@@ -4328,19 +4321,19 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4389,7 +4382,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4410,10 +4403,10 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4424,10 +4417,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4450,13 +4443,13 @@
         <v>82</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4507,7 +4500,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4531,7 +4524,7 @@
         <v>82</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4542,10 +4535,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4571,10 +4564,10 @@
         <v>138</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>155</v>
@@ -4618,7 +4611,7 @@
         <v>141</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
@@ -4627,7 +4620,7 @@
         <v>142</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4651,7 +4644,7 @@
         <v>82</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4662,10 +4655,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4691,16 +4684,16 @@
         <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4710,7 +4703,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4749,7 +4742,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4770,10 +4763,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4784,10 +4777,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4810,16 +4803,16 @@
         <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4869,7 +4862,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4890,10 +4883,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4904,10 +4897,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4915,13 +4908,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
@@ -4933,14 +4926,14 @@
         <v>113</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4950,7 +4943,7 @@
         <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>82</v>
@@ -5050,7 +5043,7 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>270</v>
@@ -5292,7 +5285,7 @@
         <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>286</v>
@@ -5616,7 +5609,7 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>308</v>
@@ -6262,7 +6255,7 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>360</v>
@@ -6384,7 +6377,7 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>371</v>
@@ -6628,7 +6621,7 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>390</v>
@@ -6663,7 +6656,7 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y39" t="s" s="2">
         <v>393</v>
@@ -6748,7 +6741,7 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>400</v>
@@ -6785,7 +6778,7 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y40" t="s" s="2">
         <v>404</v>
@@ -7232,13 +7225,13 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7289,7 +7282,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7313,7 +7306,7 @@
         <v>82</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7353,10 +7346,10 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>155</v>
@@ -7409,7 +7402,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7433,7 +7426,7 @@
         <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7828,7 +7821,7 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>454</v>
@@ -7950,7 +7943,7 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>463</v>
@@ -7987,7 +7980,7 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>467</v>
@@ -8192,7 +8185,7 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>476</v>
@@ -8672,13 +8665,13 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8729,7 +8722,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8753,7 +8746,7 @@
         <v>82</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8793,10 +8786,10 @@
         <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>155</v>
@@ -8849,7 +8842,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8873,7 +8866,7 @@
         <v>82</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9032,7 +9025,7 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>503</v>
@@ -9044,7 +9037,7 @@
         <v>505</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9069,13 +9062,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9114,13 +9107,13 @@
         <v>506</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>82</v>
@@ -9276,7 +9269,7 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>512</v>
@@ -9398,7 +9391,7 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>371</v>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
+++ b/refs/heads/master/StructureDefinition-ObservationIniciarDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
